--- a/backend/storage/app/xlsx/seed_cidades_rs.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rs.xlsx
@@ -23,7 +23,7 @@
     <t>ACEGUAENSE</t>
   </si>
   <si>
-    <t>7479c268-c2aa-4999-898d-72ed84a13503</t>
+    <t>5a9f15e2-add4-44fc-9619-9f64fccfee1a</t>
   </si>
   <si>
     <t>ÁGUA SANTA</t>

--- a/backend/storage/app/xlsx/seed_cidades_rs.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rs.xlsx
@@ -23,7 +23,7 @@
     <t>ACEGUAENSE</t>
   </si>
   <si>
-    <t>5a9f15e2-add4-44fc-9619-9f64fccfee1a</t>
+    <t>66d9f360-dc70-4fdf-afff-ab6b8acef50f</t>
   </si>
   <si>
     <t>ÁGUA SANTA</t>

--- a/backend/storage/app/xlsx/seed_cidades_rs.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rs.xlsx
@@ -23,7 +23,7 @@
     <t>ACEGUAENSE</t>
   </si>
   <si>
-    <t>66d9f360-dc70-4fdf-afff-ab6b8acef50f</t>
+    <t>71d92a75-6254-44a2-8545-9ba92268b0ab</t>
   </si>
   <si>
     <t>ÁGUA SANTA</t>

--- a/backend/storage/app/xlsx/seed_cidades_rs.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rs.xlsx
@@ -23,7 +23,7 @@
     <t>ACEGUAENSE</t>
   </si>
   <si>
-    <t>71d92a75-6254-44a2-8545-9ba92268b0ab</t>
+    <t>c17076c9-efa1-4ebb-80a2-a43399abb3d5</t>
   </si>
   <si>
     <t>ÁGUA SANTA</t>

--- a/backend/storage/app/xlsx/seed_cidades_rs.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rs.xlsx
@@ -23,7 +23,7 @@
     <t>ACEGUAENSE</t>
   </si>
   <si>
-    <t>c17076c9-efa1-4ebb-80a2-a43399abb3d5</t>
+    <t>8baaf3e9-d6f1-479c-91f1-b2e927a8e17b</t>
   </si>
   <si>
     <t>ÁGUA SANTA</t>

--- a/backend/storage/app/xlsx/seed_cidades_rs.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rs.xlsx
@@ -23,7 +23,7 @@
     <t>ACEGUAENSE</t>
   </si>
   <si>
-    <t>8baaf3e9-d6f1-479c-91f1-b2e927a8e17b</t>
+    <t>cb5aba10-a45e-4a13-9eae-be4d232e5943</t>
   </si>
   <si>
     <t>ÁGUA SANTA</t>
